--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgm2-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>76.65494383784061</v>
+        <v>85.36364133333332</v>
       </c>
       <c r="H2">
-        <v>76.65494383784061</v>
+        <v>256.090924</v>
       </c>
       <c r="I2">
-        <v>0.8295151468778933</v>
+        <v>0.832590152283795</v>
       </c>
       <c r="J2">
-        <v>0.8295151468778933</v>
+        <v>0.8325901522837948</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>235.137141268104</v>
+        <v>765.7159602147839</v>
       </c>
       <c r="R2">
-        <v>235.137141268104</v>
+        <v>6891.443641933055</v>
       </c>
       <c r="S2">
-        <v>0.2054567564061693</v>
+        <v>0.4055619758246336</v>
       </c>
       <c r="T2">
-        <v>0.2054567564061693</v>
+        <v>0.4055619758246335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>76.65494383784061</v>
+        <v>85.36364133333332</v>
       </c>
       <c r="H3">
-        <v>76.65494383784061</v>
+        <v>256.090924</v>
       </c>
       <c r="I3">
-        <v>0.8295151468778933</v>
+        <v>0.832590152283795</v>
       </c>
       <c r="J3">
-        <v>0.8295151468778933</v>
+        <v>0.8325901522837948</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>683.8751546856979</v>
+        <v>769.3031680599875</v>
       </c>
       <c r="R3">
-        <v>683.8751546856979</v>
+        <v>6923.728512539887</v>
       </c>
       <c r="S3">
-        <v>0.59755243391466</v>
+        <v>0.4074619428842026</v>
       </c>
       <c r="T3">
-        <v>0.59755243391466</v>
+        <v>0.4074619428842026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>76.65494383784061</v>
+        <v>85.36364133333332</v>
       </c>
       <c r="H4">
-        <v>76.65494383784061</v>
+        <v>256.090924</v>
       </c>
       <c r="I4">
-        <v>0.8295151468778933</v>
+        <v>0.832590152283795</v>
       </c>
       <c r="J4">
-        <v>0.8295151468778933</v>
+        <v>0.8325901522837948</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>30.33502017856949</v>
+        <v>36.94177024158355</v>
       </c>
       <c r="R4">
-        <v>30.33502017856949</v>
+        <v>332.475932174252</v>
       </c>
       <c r="S4">
-        <v>0.02650595655706399</v>
+        <v>0.01956623357495874</v>
       </c>
       <c r="T4">
-        <v>0.02650595655706399</v>
+        <v>0.01956623357495874</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.8925143955802</v>
+        <v>11.230072</v>
       </c>
       <c r="H5">
-        <v>10.8925143955802</v>
+        <v>33.690216</v>
       </c>
       <c r="I5">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="J5">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>33.41251807080508</v>
+        <v>100.734284883456</v>
       </c>
       <c r="R5">
-        <v>33.41251807080508</v>
+        <v>906.608563951104</v>
       </c>
       <c r="S5">
-        <v>0.02919499467063281</v>
+        <v>0.05335398206817624</v>
       </c>
       <c r="T5">
-        <v>0.02919499467063281</v>
+        <v>0.05335398206817624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.8925143955802</v>
+        <v>11.230072</v>
       </c>
       <c r="H6">
-        <v>10.8925143955802</v>
+        <v>33.690216</v>
       </c>
       <c r="I6">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="J6">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>97.17729339091045</v>
+        <v>101.2062024557547</v>
       </c>
       <c r="R6">
-        <v>97.17729339091045</v>
+        <v>910.855822101792</v>
       </c>
       <c r="S6">
-        <v>0.08491100720520438</v>
+        <v>0.05360393352928217</v>
       </c>
       <c r="T6">
-        <v>0.08491100720520438</v>
+        <v>0.05360393352928216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.8925143955802</v>
+        <v>11.230072</v>
       </c>
       <c r="H7">
-        <v>10.8925143955802</v>
+        <v>33.690216</v>
       </c>
       <c r="I7">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="J7">
-        <v>0.1178724453550367</v>
+        <v>0.1095319647872954</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N7">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q7">
-        <v>4.310545770984838</v>
+        <v>4.859899755218667</v>
       </c>
       <c r="R7">
-        <v>4.310545770984838</v>
+        <v>43.739097796968</v>
       </c>
       <c r="S7">
-        <v>0.003766443479199556</v>
+        <v>0.002574049189837013</v>
       </c>
       <c r="T7">
-        <v>0.003766443479199556</v>
+        <v>0.002574049189837013</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.86187766159258</v>
+        <v>5.934092333333333</v>
       </c>
       <c r="H8">
-        <v>4.86187766159258</v>
+        <v>17.802277</v>
       </c>
       <c r="I8">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="J8">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N8">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O8">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P8">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q8">
-        <v>14.91368928481023</v>
+        <v>53.229093066432</v>
       </c>
       <c r="R8">
-        <v>14.91368928481023</v>
+        <v>479.061837597888</v>
       </c>
       <c r="S8">
-        <v>0.01303119622013622</v>
+        <v>0.02819282511666611</v>
       </c>
       <c r="T8">
-        <v>0.01303119622013622</v>
+        <v>0.02819282511666611</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.86187766159258</v>
+        <v>5.934092333333333</v>
       </c>
       <c r="H9">
-        <v>4.86187766159258</v>
+        <v>17.802277</v>
       </c>
       <c r="I9">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="J9">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N9">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q9">
-        <v>43.37511935196571</v>
+        <v>53.47845945052489</v>
       </c>
       <c r="R9">
-        <v>43.37511935196571</v>
+        <v>481.306135054724</v>
       </c>
       <c r="S9">
-        <v>0.03790005816488251</v>
+        <v>0.02832490219053118</v>
       </c>
       <c r="T9">
-        <v>0.03790005816488251</v>
+        <v>0.02832490219053118</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.86187766159258</v>
+        <v>5.934092333333333</v>
       </c>
       <c r="H10">
-        <v>4.86187766159258</v>
+        <v>17.802277</v>
       </c>
       <c r="I10">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="J10">
-        <v>0.05261240776706996</v>
+        <v>0.05787788292890966</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N10">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q10">
-        <v>1.924013632860316</v>
+        <v>2.568023951957889</v>
       </c>
       <c r="R10">
-        <v>1.924013632860316</v>
+        <v>23.112215567621</v>
       </c>
       <c r="S10">
-        <v>0.001681153382051229</v>
+        <v>0.001360155621712372</v>
       </c>
       <c r="T10">
-        <v>0.001681153382051229</v>
+        <v>0.001360155621712372</v>
       </c>
     </row>
   </sheetData>
